--- a/LMT/Report/ExportExcelFile.xlsx
+++ b/LMT/Report/ExportExcelFile.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeMaster" sheetId="2" r:id="rId1"/>
-    <sheet name="DetailedReport" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" fullCalcOnLoad="1"/>
   <extLst>
@@ -25,35 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
-  <si>
-    <t>Request Type :WFH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Date :01/06/2018  To Date:27/06/2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Employee Master Records</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
-    <t>Request Date</t>
-  </si>
-  <si>
-    <t>Request Status</t>
-  </si>
-  <si>
-    <t>No records found!</t>
-  </si>
-  <si>
-    <t>Employee Master Records</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>ATTUID</t>
   </si>
   <si>
@@ -235,6 +216,18 @@
   </si>
   <si>
     <t>9987654321</t>
+  </si>
+  <si>
+    <t>SWATI</t>
+  </si>
+  <si>
+    <t>QWE123</t>
+  </si>
+  <si>
+    <t>AQZ125</t>
+  </si>
+  <si>
+    <t>S@GMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -242,7 +235,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,46 +259,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -318,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -327,188 +287,83 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
-        <color auto="1"/>
+        <color rgb="FF008000" tint="0"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
-        <color auto="1"/>
+        <color rgb="FF008000" tint="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color auto="1"/>
+        <color rgb="FF008000" tint="0"/>
       </left>
       <right/>
       <top style="thick">
-        <color auto="1"/>
+        <color rgb="FF008000" tint="0"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF008000" tint="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF008000" tint="0"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thick">
-        <color auto="1"/>
+        <color rgb="FF008000" tint="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color auto="1"/>
+        <color rgb="FF008000" tint="0"/>
       </right>
       <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF008000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF008000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF008000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF008000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF008000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF008000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF008000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF008000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF008000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF008000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF008000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF008000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF008000" tint="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF008000" tint="0"/>
-      </right>
-      <top style="thick">
         <color rgb="FF008000" tint="0"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF008000" tint="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF008000" tint="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF008000" tint="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,64 +387,42 @@
       <bottom style="thick"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF008000" tint="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF008000" tint="0"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF008000" tint="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" borderId="17" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="5" applyFill="1" borderId="15" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="5" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="5" applyFill="1" borderId="16" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,318 +737,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>69</v>
+      <c r="E19" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1225,99 +1075,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A4:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>